--- a/incucyte/2023-07-27 incucyte_stats.xlsx
+++ b/incucyte/2023-07-27 incucyte_stats.xlsx
@@ -876,8 +876,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A52921E31622BA47A5BEE7A2CE318F26" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407fb276827c0378326bfe40beac0cd1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98fb7176-381e-4eb6-825b-93e64c92b6ea" xmlns:ns3="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4f633fea242de49d6ab069ffd2c9835" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A52921E31622BA47A5BEE7A2CE318F26" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bbbe4ce2f8fe09d1c797aa555d1ed32a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98fb7176-381e-4eb6-825b-93e64c92b6ea" xmlns:ns3="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e562a0e15c5e5c6d0c89a0f84659810" ns2:_="" ns3:_="">
     <xsd:import namespace="98fb7176-381e-4eb6-825b-93e64c92b6ea"/>
     <xsd:import namespace="fe56dbcb-f404-42a8-8006-471f9c1a2fc9"/>
     <xsd:element name="properties">
@@ -896,6 +896,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -953,6 +954,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1091,7 +1097,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{646B7179-7D17-4872-B7D0-2BE8A6B2B0AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36B3E6C1-42EA-4B7E-BAE7-E2C2CE5F0B99}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
